--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Desktop\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Desktop\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED23D38-3590-469A-ACB1-0DF899A333D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848871A-21D2-4759-A2AF-CCA4F85CD23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,20 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>Period</t>
   </si>
@@ -179,6 +186,12 @@
   </si>
   <si>
     <t>period</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>mv_avg_fte</t>
   </si>
 </sst>
 </file>
@@ -37379,212 +37392,381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EBCA15-0586-40B2-9FEB-CBC0576A2986}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
       </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10589</v>
       </c>
+      <c r="C2">
+        <v>91.062517006802707</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9728</v>
+        <v>16317</v>
+      </c>
+      <c r="C3">
+        <v>140.78999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9650</v>
+        <v>14671</v>
+      </c>
+      <c r="C4">
+        <v>127.8134013605442</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(C2:C4)</f>
+        <v>119.8886394557823</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9898</v>
+        <v>9658</v>
+      </c>
+      <c r="C5">
+        <v>86.205850340136038</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D25" si="0">AVERAGE(C3:C5)</f>
+        <v>118.26975056689339</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10146</v>
+        <v>12154</v>
+      </c>
+      <c r="C6">
+        <v>108.45034013605439</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>107.48986394557819</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10385</v>
+        <v>14790</v>
+      </c>
+      <c r="C7">
+        <v>131.88530612244895</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>108.84716553287979</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10624</v>
+        <v>15233</v>
+      </c>
+      <c r="C8">
+        <v>136.67231292517005</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>125.66931972789114</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10859</v>
+        <v>15021</v>
+      </c>
+      <c r="C9">
+        <v>135.88959183673467</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>134.81573696145122</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11070</v>
+        <v>12484</v>
+      </c>
+      <c r="C10">
+        <v>115.33646258503398</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>129.29945578231289</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11296</v>
+        <v>17658</v>
+      </c>
+      <c r="C11">
+        <v>160.35306122448975</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>137.19303854875281</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11532</v>
+        <v>11941</v>
+      </c>
+      <c r="C12">
+        <v>112.75911564625849</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>129.48287981859406</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11778</v>
+        <v>17669</v>
+      </c>
+      <c r="C13">
+        <v>162.48659863945576</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>145.1995918367347</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>12015</v>
+        <v>16023</v>
+      </c>
+      <c r="C14">
+        <v>149.50999999999996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>141.58523809523808</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12266</v>
+        <v>11010</v>
+      </c>
+      <c r="C15">
+        <v>107.90244897959182</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>139.96634920634918</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12497</v>
+        <v>13506</v>
+      </c>
+      <c r="C16">
+        <v>130.14693877551019</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>129.18646258503398</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>12717</v>
+        <v>16142</v>
+      </c>
+      <c r="C17">
+        <v>153.58190476190475</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>130.54376417233559</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12939</v>
+        <v>16585</v>
+      </c>
+      <c r="C18">
+        <v>158.36891156462585</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>147.36591836734692</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13187</v>
+        <v>16373</v>
+      </c>
+      <c r="C19">
+        <v>157.58619047619044</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>156.51233560090699</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13425</v>
+        <v>13836</v>
+      </c>
+      <c r="C20">
+        <v>137.03306122448976</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>150.99605442176869</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>13664</v>
+        <v>19010</v>
+      </c>
+      <c r="C21">
+        <v>182.04965986394555</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>158.88963718820858</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>13902</v>
+        <v>13293</v>
+      </c>
+      <c r="C22">
+        <v>134.45571428571427</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>151.17947845804986</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>14120</v>
+        <v>19021</v>
+      </c>
+      <c r="C23">
+        <v>184.18319727891154</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>166.89619047619044</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>14353</v>
+        <v>17375</v>
+      </c>
+      <c r="C24">
+        <v>171.20659863945576</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>163.28183673469385</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>14555</v>
+        <v>12362</v>
+      </c>
+      <c r="C25">
+        <v>129.59904761904761</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>161.66294784580498</v>
       </c>
     </row>
   </sheetData>
